--- a/support/ScalingData.xlsx
+++ b/support/ScalingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\TSP\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F451575-4330-4742-A72F-47AB59A589DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E2F196-AF9B-45AE-ABC6-D7B18422AA91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{165D3614-EB5C-4E5C-8E7C-392DA7AFA605}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{165D3614-EB5C-4E5C-8E7C-392DA7AFA605}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2283,9 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970BE486-B5F6-4F2C-A895-3AC9BA0A3556}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
